--- a/data/trans_camb/P16A_n_R3-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A_n_R3-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.3754092399785847</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.951389478340426</v>
+        <v>5.951389478340427</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.71933546520028</v>
@@ -655,7 +655,7 @@
         <v>1.847581650177374</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>11.99498347313128</v>
+        <v>11.99498347313129</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.163110335595887</v>
@@ -664,7 +664,7 @@
         <v>0.6225377804988281</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>9.192442122983365</v>
+        <v>9.192442122983364</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.919084876781978</v>
+        <v>-1.692653053891388</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.172824724134682</v>
+        <v>-2.036664867689631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.165963735565532</v>
+        <v>3.447125788946954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8124645171337566</v>
+        <v>0.4603314001664115</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.08108800407906393</v>
+        <v>-0.1484210180441141</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.171335568924215</v>
+        <v>9.004729404856256</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2935969507529816</v>
+        <v>-0.2512795404934397</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.7116784245369387</v>
+        <v>-0.5757041636374671</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.293440857306333</v>
+        <v>7.101326578434993</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.449875598208955</v>
+        <v>1.679398866929118</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.092794556803925</v>
+        <v>1.157928817774749</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.786021529201834</v>
+        <v>8.824423082052954</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.087304936550518</v>
+        <v>4.656810896245565</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.093793823021196</v>
+        <v>3.842656551554989</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.06035424434066</v>
+        <v>14.73048490317025</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.59437995736355</v>
+        <v>2.572325425288549</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.143057523075966</v>
+        <v>1.978907582365415</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>11.14137425872668</v>
+        <v>11.31636756001374</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.132172477133556</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>2.095339714557126</v>
+        <v>2.095339714557127</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5544970328443377</v>
@@ -760,7 +760,7 @@
         <v>0.3767385657530656</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>2.445885338526375</v>
+        <v>2.445885338526376</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.2834170952118926</v>
@@ -769,7 +769,7 @@
         <v>0.1516948513042347</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2.239938176686082</v>
+        <v>2.239938176686081</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4700538175353476</v>
+        <v>-0.4550116664992413</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5604670524466413</v>
+        <v>-0.5289093985586085</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.8234264025162905</v>
+        <v>0.8035133623297394</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1240688864061581</v>
+        <v>0.07213596087664954</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03440395924412384</v>
+        <v>-0.03127786556247291</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.461064230231184</v>
+        <v>1.462060895338683</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06082725249003192</v>
+        <v>-0.05086071881677534</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1523533902364246</v>
+        <v>-0.1293847848186277</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.478871804239789</v>
+        <v>1.431435424147946</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7702879675222644</v>
+        <v>0.8806945505719879</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6243134687421721</v>
+        <v>0.6107476900249004</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.731850222975217</v>
+        <v>4.506396644853367</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.346430066943238</v>
+        <v>1.196470625930197</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.098125092139461</v>
+        <v>0.9886489670291727</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.929724438219688</v>
+        <v>3.812987503550302</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7903735883797527</v>
+        <v>0.7890276857001931</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.669362072960754</v>
+        <v>0.626461422467154</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.246808573392431</v>
+        <v>3.342010999437292</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.985233484475999</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>6.625286298308146</v>
+        <v>6.625286298308144</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6423237926861513</v>
+        <v>-0.6042732278080972</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4625672818372626</v>
+        <v>-0.4763082506743732</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.300299368645233</v>
+        <v>2.351984041618418</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1434784527902162</v>
+        <v>0.1994294550046849</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.033456037587003</v>
+        <v>-0.01410768680612492</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.612415049170085</v>
+        <v>7.480339536722426</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2893027011920834</v>
+        <v>0.1839103314831786</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1255693123943586</v>
+        <v>0.03954409053879027</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.535201558276748</v>
+        <v>5.495869122110327</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.788590319683582</v>
+        <v>1.780596702248587</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.560136325572253</v>
+        <v>1.687811830610063</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.073951810894532</v>
+        <v>5.101935698641189</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.018292392016683</v>
+        <v>3.102205993334205</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.837179284593119</v>
+        <v>2.898936524070633</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.92602817486769</v>
+        <v>10.99764983895754</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.077155818857884</v>
+        <v>2.028744359926349</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.816762464266708</v>
+        <v>1.852485477938726</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.780748610330139</v>
+        <v>7.888401223749564</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.6485750829220371</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>4.361398265501318</v>
+        <v>4.361398265501317</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4305040185280359</v>
+        <v>-0.4431422212839765</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3188341218395908</v>
+        <v>-0.3475009227433282</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.217200568795986</v>
+        <v>1.295010562561857</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.008194300255824826</v>
+        <v>0.04583678088703837</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06104187771966737</v>
+        <v>-0.02381987547221508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.703783474623669</v>
+        <v>2.819913595765946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1182911419882138</v>
+        <v>0.06870121686675072</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.06697999707263681</v>
+        <v>-0.005274601990783416</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2.702515708099818</v>
+        <v>2.653167087293561</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.278972758393524</v>
+        <v>2.389246849636998</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.092684901715444</v>
+        <v>2.325097397930277</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6.582294725915308</v>
+        <v>6.883901668459196</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.247733069376544</v>
+        <v>2.390526569458035</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.250954837761014</v>
+        <v>2.250647503942615</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8.790309511732946</v>
+        <v>8.820151856318972</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.738938244144314</v>
+        <v>1.704040862841529</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.587991757269391</v>
+        <v>1.579929177779892</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6.442931688212966</v>
+        <v>6.712808354828513</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>1.526575398053625</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>5.164816354749234</v>
+        <v>5.164816354749235</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.155442775575967</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.376011205616326</v>
+        <v>-1.354345259246622</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.122007438617033</v>
+        <v>-1.064778467801141</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.312024070487411</v>
+        <v>1.289974709992954</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.266706661739503</v>
+        <v>1.283236275710333</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1669360209585684</v>
+        <v>0.2202618073799006</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.785992531751656</v>
+        <v>3.745564415390881</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3142357876688643</v>
+        <v>0.2640545189358236</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.1174623060097284</v>
+        <v>-0.1108421958736912</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.832816470528827</v>
+        <v>2.924394764450174</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.424844599807132</v>
+        <v>0.4622663754261449</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8675335308991194</v>
+        <v>0.8774410064623434</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.753143591665228</v>
+        <v>3.778112354662134</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.464041998904912</v>
+        <v>4.4747767187497</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.060529333653227</v>
+        <v>3.238292815925613</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.529220539197554</v>
+        <v>6.56576542353687</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.128395115296842</v>
+        <v>2.080991625450566</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.60766305122798</v>
+        <v>1.710312482192496</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.741654185528715</v>
+        <v>4.68563812646603</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>1.056284945682993</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3.573696896789166</v>
+        <v>3.573696896789167</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.8970188990208801</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8116369509798275</v>
+        <v>-0.8117452403999577</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7142878398920065</v>
+        <v>-0.6426870690939035</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6451554691433254</v>
+        <v>0.6567992598193564</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.571530491500955</v>
+        <v>0.5445448971197511</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.001278931981261894</v>
+        <v>0.005651196156961203</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.63696395001148</v>
+        <v>1.681486767575009</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1750212885593378</v>
+        <v>0.1187378941418649</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08414374503143812</v>
+        <v>-0.09453100938375623</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.580531971905635</v>
+        <v>1.656246854190493</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9433801891147274</v>
+        <v>0.8628013439088881</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.302738222755851</v>
+        <v>1.351553529684731</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.673830317079053</v>
+        <v>5.651811364784745</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.565711567918307</v>
+        <v>4.665489738682476</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.159784583255551</v>
+        <v>3.242374743383707</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.08634363472986</v>
+        <v>7.032380602141231</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.290585740895509</v>
+        <v>2.180764370138851</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.655889896520846</v>
+        <v>1.715427404266585</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>5.211573468231058</v>
+        <v>5.197890207264076</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.5353719530911673</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.566711042007405</v>
+        <v>2.566711042007404</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.878434957620855</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6733262218173535</v>
+        <v>-0.712546949466604</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.941431561284935</v>
+        <v>-1.818627602495316</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.04763432574771</v>
+        <v>0.898293827832026</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4185167708345364</v>
+        <v>-0.3380390797096031</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.245130518091112</v>
+        <v>-1.274676964966868</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.37913263274637</v>
+        <v>2.312105122013681</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06668087841056616</v>
+        <v>-0.02071323262893749</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.08447983388508</v>
+        <v>-1.021576319750599</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.316324256866206</v>
+        <v>2.330483909348343</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.0228725450522</v>
+        <v>2.976088622808799</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5578083965167184</v>
+        <v>0.6021630626341506</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.015515124135814</v>
+        <v>3.967843665617853</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.914706537202243</v>
+        <v>4.041008976883897</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.825062971631881</v>
+        <v>2.672328035529926</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.126232068399218</v>
+        <v>6.107101486956776</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.805114924128155</v>
+        <v>2.652427534041944</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.26661475396263</v>
+        <v>1.25120247654965</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.53035101754597</v>
+        <v>4.572949105793541</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4637598553165571</v>
+        <v>-0.4390874419451419</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9046516515542361</v>
+        <v>-0.8920960198928604</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4218513496670521</v>
+        <v>0.2945984412535879</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2666899436103307</v>
+        <v>-0.3558329261731528</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5404992909136112</v>
+        <v>-0.549610135124026</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6281632816691701</v>
+        <v>0.6191223285183568</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.06005898792537546</v>
+        <v>-0.05226663624828035</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5461510311235505</v>
+        <v>-0.5201830824687875</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.030286219750718</v>
+        <v>1.073230417741783</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.858546517906689</v>
+        <v>5.063112438004159</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.827154010263358</v>
+        <v>1.281928687743047</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7.733818667431213</v>
+        <v>8.070978954138033</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5.67712989655032</v>
+        <v>5.399803649634065</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4.478332990228595</v>
+        <v>4.179989506474249</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>10.81719222938019</v>
+        <v>10.56133057112443</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.155775778828781</v>
+        <v>3.111418214320476</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.644310521332492</v>
+        <v>1.651992997026004</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5.862561541479854</v>
+        <v>6.008766536316801</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.1726219062485884</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.262209298198222</v>
+        <v>3.262209298198221</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.383748621009395</v>
@@ -1511,7 +1511,7 @@
         <v>1.755397799613388</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.981874395604697</v>
+        <v>6.981874395604698</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.385489429467379</v>
@@ -1520,7 +1520,7 @@
         <v>0.9878854027228313</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>5.1873734692749</v>
+        <v>5.187373469274898</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2941586478656498</v>
+        <v>-0.2821805897794816</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.3754743280135553</v>
+        <v>-0.484842949462478</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.480730416802529</v>
+        <v>2.444135639886459</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.422020549798609</v>
+        <v>1.389094919554266</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7877377487473873</v>
+        <v>0.9000067054097992</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.050379584161782</v>
+        <v>6.067244880794054</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7292993699382823</v>
+        <v>0.841659000291357</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4410855073151268</v>
+        <v>0.4472199418340738</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.575141768389513</v>
+        <v>4.565528169467759</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9884262332147379</v>
+        <v>1.079074423757794</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7915711579044117</v>
+        <v>0.7262675541194473</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.98630785520542</v>
+        <v>3.991337018209937</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.345615763290811</v>
+        <v>3.270126008371987</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.651047796229537</v>
+        <v>2.635718063942251</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.928501278625072</v>
+        <v>7.810095474323766</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.964760398548143</v>
+        <v>1.972575987178861</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.587482804797301</v>
+        <v>1.546508021349037</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.761250860139852</v>
+        <v>5.775882830324306</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1170758019753161</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2.212498854275705</v>
+        <v>2.212498854275704</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.9323242191411656</v>
@@ -1616,7 +1616,7 @@
         <v>0.6865656338014605</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2.730728624928354</v>
+        <v>2.730728624928355</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.6850145468928533</v>
@@ -1625,7 +1625,7 @@
         <v>0.4884309162780063</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2.564744422471264</v>
+        <v>2.564744422471263</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1851498547899358</v>
+        <v>-0.1643322699481237</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2248732455970064</v>
+        <v>-0.2732434904597178</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>1.311252526183701</v>
+        <v>1.343462103161467</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.467254198693805</v>
+        <v>0.4410256569976015</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2453541778749319</v>
+        <v>0.3126763170311673</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.980307816919924</v>
+        <v>1.983261040312335</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3243125018129551</v>
+        <v>0.3586559378432208</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1904924406261024</v>
+        <v>0.1907517643928348</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.941483673126549</v>
+        <v>1.978334545614917</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7994609404924865</v>
+        <v>0.8879389487481616</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6437292220739163</v>
+        <v>0.598649314064854</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.355625337746792</v>
+        <v>3.337925445664903</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.500036966107234</v>
+        <v>1.496853799332912</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.177857783284831</v>
+        <v>1.242759487269404</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.767314206566851</v>
+        <v>3.732028396092875</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.09596724889005</v>
+        <v>1.122594018866007</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.8729300118172242</v>
+        <v>0.8672637221727367</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.293290237611667</v>
+        <v>3.29858360344982</v>
       </c>
     </row>
     <row r="34">
